--- a/Документация/TestRarchet.xlsx
+++ b/Документация/TestRarchet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\всеподряд\ввтрпо\RaschetRabot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\всеподряд\ввтрпо\RaschetRabot\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Наименование</t>
   </si>
@@ -46,15 +46,9 @@
     <t xml:space="preserve">Стоимость аренды оборудования и инструментов (L): </t>
   </si>
   <si>
-    <t>L = O * A * D1</t>
-  </si>
-  <si>
     <t>Стоимость транспортировки материалов и оборудования на объект (W)</t>
   </si>
   <si>
-    <t xml:space="preserve"> W = D2 * V * M</t>
-  </si>
-  <si>
     <t>Стоимость инженерных коммуникаций (E)</t>
   </si>
   <si>
@@ -94,33 +88,15 @@
     <t>Ставка оплаты труда рабочего в час (R)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Cтавка оплаты труда рабочего в час (T)</t>
-  </si>
-  <si>
     <t>Коэффициент, учитывающий накладные расходы и прибыль подрядчика (U)</t>
   </si>
   <si>
     <t>Cтоимость аренды оборудования в день (O)</t>
   </si>
   <si>
-    <t>Стоимость аренды оборудования в день (A)</t>
-  </si>
-  <si>
-    <t>Коэффициент, учитывающий амортизацию и обслуживание оборудования (D1)</t>
-  </si>
-  <si>
-    <t>Расстояние до объекта (D2)</t>
-  </si>
-  <si>
     <t>км</t>
   </si>
   <si>
-    <t>Cтоимость перевозки единицы объема материалов (V)</t>
-  </si>
-  <si>
-    <t>Общий объем перевозимых материалов (M)</t>
-  </si>
-  <si>
     <t>Стоимость установки единицы длины коммуникации (Сс)</t>
   </si>
   <si>
@@ -137,6 +113,30 @@
   </si>
   <si>
     <t>Расчет (руб)</t>
+  </si>
+  <si>
+    <t>Количество дней аренды (A)</t>
+  </si>
+  <si>
+    <t>дней</t>
+  </si>
+  <si>
+    <t>Общее количество часов (T)</t>
+  </si>
+  <si>
+    <t>часов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L = O * A </t>
+  </si>
+  <si>
+    <t>Cтоимость перевозки материалов (V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> W = D * V * M</t>
+  </si>
+  <si>
+    <t>Расстояние до объекта (D)</t>
   </si>
 </sst>
 </file>
@@ -412,13 +412,14 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="66.77734375" customWidth="1"/>
     <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.2">
@@ -429,7 +430,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -457,7 +458,7 @@
       </c>
       <c r="C3" s="1">
         <f>'Тестовые значения'!B4*'Тестовые значения'!B5*'Тестовые значения'!B6</f>
-        <v>120000</v>
+        <v>24000</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -468,11 +469,11 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1">
-        <f>'Тестовые значения'!B7*'Тестовые значения'!B8*'Тестовые значения'!B9</f>
-        <v>45000</v>
+        <f>'Тестовые значения'!B7*'Тестовые значения'!B8</f>
+        <v>5000</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -480,14 +481,14 @@
     </row>
     <row r="5" spans="1:4" ht="16.2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1">
-        <f>'Тестовые значения'!B10*'Тестовые значения'!B11*'Тестовые значения'!B12</f>
-        <v>125000</v>
+        <f>'Тестовые значения'!B9*'Тестовые значения'!B10*'Тестовые значения'!B2</f>
+        <v>500000</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
@@ -495,13 +496,13 @@
     </row>
     <row r="6" spans="1:4" ht="16.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
-        <f>'Тестовые значения'!B138+'Тестовые значения'!B14</f>
+        <f>'Тестовые значения'!B136+'Тестовые значения'!B12</f>
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -510,27 +511,27 @@
     </row>
     <row r="7" spans="1:4" ht="16.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
-        <f>'Тестовые значения'!B15*'Тестовые значения'!B16</f>
+        <f>'Тестовые значения'!B13*'Тестовые значения'!B14</f>
         <v>5000</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="16.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
         <f>0.2*SUM(C2:C7)</f>
-        <v>81010</v>
+        <v>128810</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>2</v>
@@ -548,12 +549,12 @@
     </row>
     <row r="10" spans="1:4" ht="16.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
         <f>SUM(C2:C7)+C8</f>
-        <v>486060</v>
+        <v>772860</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -571,10 +572,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15"/>
@@ -584,31 +585,31 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1">
         <f>50</f>
         <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <f>2000</f>
         <v>2000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <f>1.1</f>
@@ -618,31 +619,31 @@
     </row>
     <row r="4" spans="1:3" ht="16.2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <f>200</f>
         <v>200</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.2">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1">
-        <f>500</f>
-        <v>500</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.2">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1">
         <f>1.2</f>
@@ -652,116 +653,96 @@
     </row>
     <row r="7" spans="1:3" ht="16.2">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1">
         <f>1000</f>
         <v>1000</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.2">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.2">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.2">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1">
         <f>30</f>
         <v>30</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.2">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1">
-        <f>1.5</f>
-        <v>1.5</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" ht="16.2">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.2">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1">
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.2">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1">
-        <f>5</f>
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.2">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="1">
-        <f>500</f>
-        <v>500</v>
-      </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="16.2">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1">
-        <f>30</f>
-        <v>30</v>
+        <v>50000</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.2">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1">
-        <f>50</f>
-        <v>50</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.2">
-      <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="1">
-        <v>50000</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.2">
-      <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="1">
         <f>10/100</f>
         <v>0.1</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.59055554866790805" right="0.59055554866790805" top="0.59055554866790805" bottom="0.59055554866790805" header="0.5" footer="0.5"/>
